--- a/biology/Zoologie/Euselasia_opalescens/Euselasia_opalescens.xlsx
+++ b/biology/Zoologie/Euselasia_opalescens/Euselasia_opalescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia opalescens est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Euselasia.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euselasia opalescens a été décrit par  William Chapman Hewitson en 1855 sous le nom de Eurygona opalescens[1]
-Sous-espèces
-Euselasia opalescens opalescens présent au Brésil.
-Euselasia opalescens interrupta Lathy, 1924; présent en Guyane
-Euselasia opalescens joiceyi Lathy, 1924; présent en Équateur et au Pérou.
-Euselasia opalescens opigena Stichel, 1919; présent en Bolivie.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia opalescens a été décrit par  William Chapman Hewitson en 1855 sous le nom de Eurygona opalescens
+</t>
         </is>
       </c>
     </row>
@@ -543,13 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euselasia opalescens est un papillon de couleur orange cuivré bordé de noir. L'autre face est de couleur blanche avec de fines lignes de marques marron une fine bordure et une ligne submarginale de fins chevrons.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euselasia opalescens opalescens présent au Brésil.
+Euselasia opalescens interrupta Lathy, 1924; présent en Guyane
+Euselasia opalescens joiceyi Lathy, 1924; présent en Équateur et au Pérou.
+Euselasia opalescens opigena Stichel, 1919; présent en Bolivie.</t>
         </is>
       </c>
     </row>
@@ -574,10 +592,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia opalescens est un papillon de couleur orange cuivré bordé de noir. L'autre face est de couleur blanche avec de fines lignes de marques marron une fine bordure et une ligne submarginale de fins chevrons.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,15 +625,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_opalescens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_opalescens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euselasia opalescens est présent en Guyane, Guyana, au Surinam, en Équateur,  en Bolivie, au Pérou et au Brésil[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia opalescens est présent en Guyane, Guyana, au Surinam, en Équateur,  en Bolivie, au Pérou et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euselasia_opalescens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_opalescens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
